--- a/code.xlsx
+++ b/code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bramyeon/data/dslab/2024-10-korea-happiness-v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD910888-708F-7046-BD11-CA85CF646BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25880856-850E-114E-A651-AFFC567569A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="10720" windowWidth="30240" windowHeight="17640" xr2:uid="{1FC1BB6F-2D1E-AA42-9D11-316BCD7E2C6A}"/>
+    <workbookView xWindow="2840" yWindow="11180" windowWidth="30240" windowHeight="17640" xr2:uid="{1FC1BB6F-2D1E-AA42-9D11-316BCD7E2C6A}"/>
   </bookViews>
   <sheets>
     <sheet name="code" sheetId="1" r:id="rId1"/>
@@ -2730,8 +2730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED68F4D-230E-944C-8FE0-B4E21CC24D32}">
   <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="A313" sqref="A313"/>
+    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+      <selection activeCell="E312" sqref="E312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="F307">
-        <v>37264</v>
+        <v>4.5712999999999999</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -8801,10 +8801,10 @@
         <v>0</v>
       </c>
       <c r="E308">
-        <v>616413</v>
+        <v>5.7899000000000003</v>
       </c>
       <c r="F308">
-        <v>91041740</v>
+        <v>7.9592000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -8829,10 +8829,10 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>309</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F310">
-        <v>33062</v>
+        <v>4.5193000000000003</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -8843,10 +8843,10 @@
         <v>0</v>
       </c>
       <c r="E311">
-        <v>361</v>
+        <v>2.5575000000000001</v>
       </c>
       <c r="F311">
-        <v>133930</v>
+        <v>5.1269</v>
       </c>
     </row>
     <row r="312" spans="1:6">
